--- a/cocos_data/data/zh-cn/age.xlsx
+++ b/cocos_data/data/zh-cn/age.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="34">
   <si>
     <t>$age</t>
   </si>
@@ -59,7 +59,76 @@
     <t>2</t>
   </si>
   <si>
-    <t>11324*99999999</t>
+    <t>10012*10</t>
+  </si>
+  <si>
+    <t>10013*10</t>
+  </si>
+  <si>
+    <t>10014*10</t>
+  </si>
+  <si>
+    <t>10023*5</t>
+  </si>
+  <si>
+    <t>10024*5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10015*10</t>
+  </si>
+  <si>
+    <t>10016*10</t>
+  </si>
+  <si>
+    <t>10017*10</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10021*1</t>
+  </si>
+  <si>
+    <t>10022*10</t>
+  </si>
+  <si>
+    <t>10023*10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10018*10</t>
+  </si>
+  <si>
+    <t>10019*10</t>
+  </si>
+  <si>
+    <t>10020*10</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10026*10</t>
+  </si>
+  <si>
+    <t>10027*10</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>10028*10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>11324</t>
   </si>
 </sst>
 </file>
@@ -72,7 +141,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +160,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -559,148 +621,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,24 +1096,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:MP5"/>
+  <dimension ref="A1:MP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="44.45" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.25" style="3"/>
     <col min="2" max="2" width="12.5555555555556" style="3" customWidth="1"/>
     <col min="3" max="16384" width="10.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:354">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:354">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15" customHeight="1" spans="1:354">
+    <row r="2" s="2" customFormat="1" ht="24" spans="1:354">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3179,7 +3241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:3">
+    <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -3190,7 +3252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:4">
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3204,12 +3266,105 @@
         <v>10011</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:2">
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
